--- a/data/trans_bre/P19_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,5%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,28%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-6,15%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 14,24</t>
+          <t>-14,99; 2,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 10,1</t>
+          <t>-10,08; 8,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 9,27</t>
+          <t>-8,45; 10,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 3,35</t>
+          <t>-2,02; 17,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 11,19</t>
+          <t>-16,22; -0,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 125,82</t>
+          <t>-10,41; 4,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 82,42</t>
+          <t>-14,43; 3,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 93,18</t>
+          <t>-16,98; 2,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 29,05</t>
+          <t>-11,81; 10,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 237,73</t>
+          <t>-9,44; 13,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 24,26</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; -0,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 5,55</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,62; 4,4</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-38,9%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 5,07</t>
+          <t>-4,39; 14,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 11,97</t>
+          <t>-10,87; 7,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 6,46</t>
+          <t>-5,6; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 1,83</t>
+          <t>-1,17; 22,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 8,34</t>
+          <t>-8,59; 5,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 29,04</t>
+          <t>-8,24; 6,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 100,44</t>
+          <t>-7,71; 10,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 44,77</t>
+          <t>-5,35; 21,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 23,68</t>
+          <t>-12,19; 8,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 133,16</t>
+          <t>-6,59; 12,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 32,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 6,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 8,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 13,03</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,94</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-30,22%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-33,76%</t>
+          <t>-6,64%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 6,5</t>
+          <t>-6,65; 8,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 1,34</t>
+          <t>-2,74; 11,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 11,93</t>
+          <t>-11,48; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,52</t>
+          <t>-5,93; 3,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 0,68</t>
+          <t>-1,29; 12,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 39,43</t>
+          <t>-0,72; 14,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 9,38</t>
+          <t>-3,76; 8,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 110,28</t>
+          <t>-7,85; 10,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 63,29</t>
+          <t>-3,27; 16,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 5,76</t>
+          <t>-13,18; 1,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 4,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 16,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 18,11</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 10,35</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-6,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>-1,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 12,0</t>
+          <t>-11,73; 2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 11,43</t>
+          <t>-11,41; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,01</t>
+          <t>-7,02; 4,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 4,6</t>
+          <t>-4,41; 8,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 9,44</t>
+          <t>-9,33; 2,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 71,39</t>
+          <t>-8,17; 7,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 90,36</t>
+          <t>-4,66; 8,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 48,32</t>
+          <t>-14,25; 3,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 36,13</t>
+          <t>-13,26; 2,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 64,11</t>
+          <t>-8,17; 5,44</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 11,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 2,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 9,23</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 11,34</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 13,05</t>
+          <t>-12,5; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 8,18</t>
+          <t>-8,9; 7,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 16,65</t>
+          <t>-17,5; -3,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,31</t>
+          <t>-4,53; 6,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 12,27</t>
+          <t>-5,02; 8,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 87,23</t>
+          <t>-11,43; 5,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 48,11</t>
+          <t>-6,58; 10,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 139,7</t>
+          <t>-14,7; 3,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 50,05</t>
+          <t>-10,87; 10,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 73,86</t>
+          <t>-20,23; -4,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 7,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 11,02</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; 7,57</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 14,51</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>-11,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>-7,02%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-13,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-9,29%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-14,14%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 14,07</t>
+          <t>-13,56; 0,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 18,12</t>
+          <t>-19,04; -0,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 14,69</t>
+          <t>-13,81; 3,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 17,69</t>
+          <t>-20,6; -3,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 13,27</t>
+          <t>-17,03; 0,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 122,54</t>
+          <t>-13,45; 5,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 136,45</t>
+          <t>-21,0; -2,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 106,16</t>
+          <t>-15,33; 0,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 217,01</t>
+          <t>-21,88; -1,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 136,04</t>
+          <t>-16,16; 4,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,66; -4,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-18,68; 0,98</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,24; 6,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-24,25; -2,56</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-3,01%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>-4,26%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,52%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,06</t>
+          <t>-6,19; 0,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,49</t>
+          <t>-5,83; 0,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,5</t>
+          <t>-6,46; -0,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,75</t>
+          <t>-2,61; 4,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,52</t>
+          <t>-5,48; 0,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 35,19</t>
+          <t>-4,54; 2,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 33,68</t>
+          <t>-5,62; 1,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 44,71</t>
+          <t>-7,49; 0,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 21,72</t>
+          <t>-7,01; 1,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 33,32</t>
+          <t>-7,66; -0,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 5,13</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 0,89</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 2,96</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 1,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
